--- a/CherryIT_scenariusz_testowy.xlsx
+++ b/CherryIT_scenariusz_testowy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
   <si>
     <t>Scenariusz testowy</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Spodziewane rezultaty</t>
   </si>
   <si>
-    <t>Warunek końcowy</t>
-  </si>
-  <si>
     <t>ID scenariusza</t>
   </si>
   <si>
@@ -60,12 +57,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Sprawdzanie działania ikon/linków przekierowujących na poszczególne podstrony</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie, czy poszczególne ikony/linki zamieszczone na stronie głównej, przekierowują do docelowych podstron.</t>
-  </si>
-  <si>
     <t>Nazwa</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
     <t>Przekierowanie ze strony głównej sklepu do formularza email sklepu</t>
   </si>
   <si>
-    <t>Kliknięcie w lewym górnym rogu w ikone maila lub w nazwę maila skleptestarmy@gmail.com</t>
-  </si>
-  <si>
     <t>Pozostanie na stronie głównej - formularz nie otworzył się</t>
   </si>
   <si>
@@ -96,18 +84,9 @@
     <t>Zalogowany użytkownik będący na stronie głównej sklepu http://skleptest.pl/</t>
   </si>
   <si>
-    <t>Celem testu jest wyszukanie przez pole lupki konkretnego produktu znajdującego się w ofercie sklepu a następnie wyświetlenie na stronie wyszukanych produktów</t>
-  </si>
-  <si>
-    <t>Wpisanie w puste pole Search… nazwy rzeczy będącej w sprzedaży sklepu (np..: shirt)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Przekierowanie użytkownika do formularza email sklepu </t>
   </si>
   <si>
-    <t>Przekierowanie użytkownika do strony  z kategorii SHIRTS z możliwością robienia zakupów na stronie</t>
-  </si>
-  <si>
     <t>Wyświetlenie się strony zawierającej tylko opis posiadanych przez sklep shirt'ów</t>
   </si>
   <si>
@@ -126,17 +105,247 @@
     <t>ANA004</t>
   </si>
   <si>
-    <t>Generic Shop</t>
-  </si>
-  <si>
-    <t>Przekierowanei z posdtrony sklepu na strone główną sklepu przez kliknięcie napisu "Generic Shop"</t>
+    <t>Celem testu jest sprawdzenie możliwości powortu z każdego miejsca aplikacji do strony głównej poprzez kliknięcie napisu "Generic Shop"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w napis "Generic Shop"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika do strony głównej</t>
+  </si>
+  <si>
+    <t>Użytkownik został przekierowany do strony głównej</t>
+  </si>
+  <si>
+    <t>Pozytywny</t>
+  </si>
+  <si>
+    <t>Kliknięcie w pole "My cart - 0 zł"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przekierowanie użytkownika do pustego koszyka z zakupami i wyświetlenie komunikatu "Your cart is currently empty."  </t>
+  </si>
+  <si>
+    <t>Użytkownik został przekierowany do pustego koszyka, komunikat został wyświetlony</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie działania linku przekierowującego z pustego koszyka na stronę sklepu</t>
+  </si>
+  <si>
+    <t>Zalogowany użytkownik będący na stronie pustego koszyka http://skleptest.pl/cart/</t>
+  </si>
+  <si>
+    <t>Kliknięcie w pole "Return to shop"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika na stronę sklepu</t>
+  </si>
+  <si>
+    <t>Użytkownik został przekierowany do strony sklepu</t>
+  </si>
+  <si>
+    <t>Celem testów jest sprawdzenie, czy poszczególne ikony/linki zamieszczone na stronie głównej lub w podstronach przekierowują do docelowych stron/podstron</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika z pustego koszyka na stronę sklepu</t>
+  </si>
+  <si>
+    <t>Przekierowanie z podstrony sklepu na stronę główną aplikacji przez kliknięcie napisu "Generic Shop"</t>
+  </si>
+  <si>
+    <t>Zalogowany użytkownik będący na podstronie sklepu, np..: http://skleptest.pl/shop/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie czy lupka przy wpisywaniu błędnych danych da komunikat o braku rezultatu poszukiwań </t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika do strony sklepu z kategorią SHIRTS z możliwością robienia zakupów na stronie sklepu</t>
+  </si>
+  <si>
+    <t>Kliknięcie w pole "SHOP"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika ze strony głównej na podstronę "SHOP"</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego ze strony głównej sklepu na podstronę "SHOP"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika do strony "SHOP"</t>
+  </si>
+  <si>
+    <t>Pozostanie na stronie głównej - strona "SHOP" nie otworzyła się</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika ze strony głównej na podstronę "MOST WANTED"</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego ze strony głównej sklepu na podstronę "MOST WANTED"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w pole "MOST WANTED"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika do strony "MOST WANTED"</t>
+  </si>
+  <si>
+    <t>Użytkownik został przekierowany na podstronę "MOST WANTED"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika ze strony głównej na podstronę "ABOUT US"</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego ze strony głównej sklepu na podstronę "ABOUT US"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w pole "ABOUT US"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika do strony "ABOUT US"</t>
+  </si>
+  <si>
+    <t>Użytkownik został przekierowany na podstronę "CONTACT"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika ze strony głównej na podstronę "CONTACT"</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego ze strony głównej sklepu na podstronę "CONTACT"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w pole "CONTACT"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika do strony "CONTACT"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika ze strony głównej na podstronę "BLOG"</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego ze strony głównej sklepu na podstronę "BLOG"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w pole "BLOG"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika do strony "BLOG"</t>
+  </si>
+  <si>
+    <t>Użytkownik został przekierowany na podstronę z napisem  "Nothing Found"</t>
+  </si>
+  <si>
+    <t>Rozwinięcie listy kategorii produktów znajdujących się w sklepie po najechaniu kursorem na pole "CATERGRIES"</t>
+  </si>
+  <si>
+    <t>Komentarze</t>
+  </si>
+  <si>
+    <r>
+      <t>Błędna nazwa pola "CATERGRIES" (poprawna: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>CATEGORIES"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności rozwinięcia listy kategorii produktów znajdujących się w sklepie po najechaniu kursorem na pole "CATERGRIES"</t>
+  </si>
+  <si>
+    <t>Najechanie kursorem na pole "CATERGRIES"</t>
+  </si>
+  <si>
+    <t>Rozwinięcie listy kategorii produktów znajdujących się w sklepie</t>
+  </si>
+  <si>
+    <t>Lista kategorii produktów rozwinęła się</t>
+  </si>
+  <si>
+    <t>Sprawdzanie działania ikon/linków na stronie głównej oraz w podstronach przekierowujących na stronę główną sklepu lub na poszczególne podstrony</t>
+  </si>
+  <si>
+    <t>Kliknięcie w lewym górnym rogu w ikonę maila lub w nazwę maila skleptestarmy@gmail.com</t>
+  </si>
+  <si>
+    <t>Celem testu jest wyszukanie przez pole lupki konkretnej grupy produktów znajdujących się w ofercie sklepu a następnie wyświetlenie ich na stronie wyszukanych produktów</t>
+  </si>
+  <si>
+    <t>Wyświetlenie komunikatu o nieodnalezieniu pasującego produktu i spróbowaniu użycia innego słowa klucza</t>
+  </si>
+  <si>
+    <t>Komunikat o nieodnalezieniu pasującego produktu i spróbowaniu uzycia innego słowa klucza wyświetlił się</t>
+  </si>
+  <si>
+    <t>Sprawdzenie działania lupki przy niewpisywaniu niczego w pole wyszukiwania</t>
+  </si>
+  <si>
+    <t>Wpisanie w puste pole "Search…" ciągu cyfr i znaków specjalnych (np.: 123@) i wciśnięcie ikonki lupki celem wyszukania</t>
+  </si>
+  <si>
+    <t>Wpisanie w puste pole "Search…" nazwy rzeczy będącej w sprzedaży sklepu (np..: shirt)  i wciśnięcie ikonki lupki celem wyszukania</t>
+  </si>
+  <si>
+    <t>Nie wpisywanie nic w puste pole "Search…" i wciśnięcie ikonki lupki celem wyszukania</t>
+  </si>
+  <si>
+    <t>Brak reakcji ze strony aplikacji - użytkownik zostaje na stronie głównej</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie czy lupka przy braku wpisania wyszukiwanej rzeczy zignoruje polecenie szukania i pozostawi użytkownika na stronie głównej</t>
+  </si>
+  <si>
+    <t>Przeniesienie użytkownika do strony z wyszukanymi rezultatami</t>
+  </si>
+  <si>
+    <t>ANA005</t>
+  </si>
+  <si>
+    <t>ANA006</t>
+  </si>
+  <si>
+    <t>ANA007</t>
+  </si>
+  <si>
+    <t>ANA008</t>
+  </si>
+  <si>
+    <t>ANA009</t>
+  </si>
+  <si>
+    <t>ANA010</t>
+  </si>
+  <si>
+    <t>ANA011</t>
+  </si>
+  <si>
+    <t>ANA012</t>
+  </si>
+  <si>
+    <t>ANA013</t>
+  </si>
+  <si>
+    <t>1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +360,18 @@
       <name val="Czcionka tekstu podstawowego"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,11 +389,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -181,6 +431,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,7 +751,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -488,7 +759,7 @@
     <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
     <col min="3" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.375" style="1" customWidth="1"/>
     <col min="7" max="8" width="20.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
@@ -503,27 +774,27 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="128.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="142.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -531,158 +802,412 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.5">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="114">
+      <c r="A16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="114">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="H16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="142.5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="114">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="142.5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="99.75">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="156.75">
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="85.5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="114">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="E22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="G22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="114">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="85.5">
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="71.25">
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="F23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="114">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="85.5">
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="142.5">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="114">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="114">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="114">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
